--- a/1/2/Agregados monetarios 1965 a 2021 - Trimestral.xlsx
+++ b/1/2/Agregados monetarios 1965 a 2021 - Trimestral.xlsx
@@ -3702,10 +3702,10 @@
         <v>79244</v>
       </c>
       <c r="C224">
-        <v>166429</v>
+        <v>166713</v>
       </c>
       <c r="D224">
-        <v>280147</v>
+        <v>280397</v>
       </c>
     </row>
   </sheetData>

--- a/1/2/Agregados monetarios 1965 a 2021 - Trimestral.xlsx
+++ b/1/2/Agregados monetarios 1965 a 2021 - Trimestral.xlsx
@@ -3705,7 +3705,7 @@
         <v>166713</v>
       </c>
       <c r="D224">
-        <v>280397</v>
+        <v>280512</v>
       </c>
     </row>
   </sheetData>

--- a/1/2/Agregados monetarios 1965 a 2021 - Trimestral.xlsx
+++ b/1/2/Agregados monetarios 1965 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Serie</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3708,6 +3711,20 @@
         <v>280512</v>
       </c>
     </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225">
+        <v>79767</v>
+      </c>
+      <c r="C225">
+        <v>173194</v>
+      </c>
+      <c r="D225">
+        <v>295207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/2/Agregados monetarios 1965 a 2021 - Trimestral.xlsx
+++ b/1/2/Agregados monetarios 1965 a 2021 - Trimestral.xlsx
@@ -3719,10 +3719,10 @@
         <v>79767</v>
       </c>
       <c r="C225">
-        <v>173194</v>
+        <v>174019</v>
       </c>
       <c r="D225">
-        <v>295207</v>
+        <v>295566</v>
       </c>
     </row>
   </sheetData>
